--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>8535600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6310100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>6310100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>23044200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>23044200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>19645200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>19645200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>37422700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>37422700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>26240600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>26240600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>7886500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>7886500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>21305100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>21305100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>15806700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,41 @@
         <v>15806700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11490500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43438,6 +43438,41 @@
         <v>11490500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10571100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,41 @@
         <v>10571100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>6034400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43508,6 +43508,41 @@
         <v>6034400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>22881400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,76 @@
         <v>22881400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>11538500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10333600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,76 @@
         <v>10333600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3270400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10680100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,41 @@
         <v>10680100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>3926300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43718,6 +43718,41 @@
         <v>3926300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6561100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>6561100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1566400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>1566400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3417400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,76 @@
         <v>3417400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1316600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1508100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43893,6 +43893,41 @@
         <v>1508100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1895800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43928,6 +43928,41 @@
         <v>1895800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3374000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84948,6 +84948,41 @@
         <v>3374000</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>3777900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84983,6 +84983,41 @@
         <v>3777900</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>1922400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2414"/>
+  <dimension ref="A1:I2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85018,6 +85018,41 @@
         <v>1922400</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>3272400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2415"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85053,6 +85053,41 @@
         <v>3272400</v>
       </c>
     </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>2828700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85088,6 +85088,41 @@
         <v>2828700</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>6857800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85123,6 +85123,41 @@
         <v>6857800</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>2557800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85158,6 +85158,41 @@
         <v>2557800</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2419" t="n">
+        <v>6418900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85193,6 +85193,41 @@
         <v>6418900</v>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2420" t="n">
+        <v>6274600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85228,6 +85228,41 @@
         <v>6274600</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>374200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2421"/>
+  <dimension ref="A1:I2422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85263,6 +85263,43 @@
         <v>374200</v>
       </c>
     </row>
+    <row r="2422">
+      <c r="A2422" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2422" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2422" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2422"/>
+  <dimension ref="A1:I2423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85300,6 +85300,41 @@
         </is>
       </c>
     </row>
+    <row r="2423">
+      <c r="A2423" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2423" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2423" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2423" t="n">
+        <v>1145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2423"/>
+  <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85335,6 +85335,41 @@
         <v>1145000</v>
       </c>
     </row>
+    <row r="2424">
+      <c r="A2424" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2424" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2424" t="n">
+        <v>205000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2424"/>
+  <dimension ref="A1:I2425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85370,6 +85370,41 @@
         <v>205000</v>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2425" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2425" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2425" t="n">
+        <v>676300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2425"/>
+  <dimension ref="A1:I2426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85405,6 +85405,41 @@
         <v>676300</v>
       </c>
     </row>
+    <row r="2426">
+      <c r="A2426" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2426" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2426" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2426" t="n">
+        <v>819300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2426"/>
+  <dimension ref="A1:I2427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85440,6 +85440,41 @@
         <v>819300</v>
       </c>
     </row>
+    <row r="2427">
+      <c r="A2427" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2427" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2427" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2427" t="n">
+        <v>235500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2719"/>
+  <dimension ref="A1:I2720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95695,6 +95695,41 @@
         <v>235500</v>
       </c>
     </row>
+    <row r="2720">
+      <c r="A2720" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2720" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2720" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2720" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2720" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2720" t="n">
+        <v>278000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2720"/>
+  <dimension ref="A1:I2721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95730,6 +95730,41 @@
         <v>278000</v>
       </c>
     </row>
+    <row r="2721">
+      <c r="A2721" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2721" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2721" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2721" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2721" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2721" t="n">
+        <v>162000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2721"/>
+  <dimension ref="A1:I2722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95765,6 +95765,41 @@
         <v>162000</v>
       </c>
     </row>
+    <row r="2722">
+      <c r="A2722" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2722" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2722" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2722" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2722" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2722" t="n">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2722"/>
+  <dimension ref="A1:I2723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95800,6 +95800,41 @@
         <v>5800</v>
       </c>
     </row>
+    <row r="2723">
+      <c r="A2723" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2723" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2723" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2723" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2723" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2723" t="n">
+        <v>7637600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2723"/>
+  <dimension ref="A1:I2724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95835,6 +95835,41 @@
         <v>7637600</v>
       </c>
     </row>
+    <row r="2724">
+      <c r="A2724" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2724" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2724" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2724" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2724" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2724" t="n">
+        <v>1451000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2724"/>
+  <dimension ref="A1:I2725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95870,6 +95870,41 @@
         <v>1451000</v>
       </c>
     </row>
+    <row r="2725">
+      <c r="A2725" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2725" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2725" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2725" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2725" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2725" t="n">
+        <v>789900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2725"/>
+  <dimension ref="A1:I2726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95905,6 +95905,41 @@
         <v>789900</v>
       </c>
     </row>
+    <row r="2726">
+      <c r="A2726" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2726" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2726" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2726" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2726" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2726" t="n">
+        <v>2195500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2726"/>
+  <dimension ref="A1:I2727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95940,6 +95940,41 @@
         <v>2195500</v>
       </c>
     </row>
+    <row r="2727">
+      <c r="A2727" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2727" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2727" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2727" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2727" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2727" t="n">
+        <v>745200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2727"/>
+  <dimension ref="A1:I2728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95975,6 +95975,41 @@
         <v>745200</v>
       </c>
     </row>
+    <row r="2728">
+      <c r="A2728" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2728" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2728" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2728" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2728" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2728" t="n">
+        <v>2035500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2728"/>
+  <dimension ref="A1:I2729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96010,6 +96010,41 @@
         <v>2035500</v>
       </c>
     </row>
+    <row r="2729">
+      <c r="A2729" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2729" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2729" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2729" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2729" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2729" t="n">
+        <v>483200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2729"/>
+  <dimension ref="A1:I2731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96045,6 +96045,76 @@
         <v>483200</v>
       </c>
     </row>
+    <row r="2730">
+      <c r="A2730" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2730" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2730" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2730" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2730" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2730" t="n">
+        <v>529800</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2731" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2731" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2731" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2731" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2731" t="n">
+        <v>1082800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2731"/>
+  <dimension ref="A1:I2732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96115,6 +96115,41 @@
         <v>1082800</v>
       </c>
     </row>
+    <row r="2732">
+      <c r="A2732" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2732" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2732" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2732" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2732" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2732" t="n">
+        <v>540000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2732"/>
+  <dimension ref="A1:I2735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96150,6 +96150,111 @@
         <v>540000</v>
       </c>
     </row>
+    <row r="2733">
+      <c r="A2733" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2733" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2733" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2733" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2733" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2733" t="n">
+        <v>100300</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2734" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2734" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2734" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2734" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2734" t="n">
+        <v>406000</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2735" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2735" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2735" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2735" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2735" t="n">
+        <v>976300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2735"/>
+  <dimension ref="A1:I2736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96255,6 +96255,41 @@
         <v>976300</v>
       </c>
     </row>
+    <row r="2736">
+      <c r="A2736" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2736" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2736" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2736" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2736" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2736" t="n">
+        <v>595000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2736"/>
+  <dimension ref="A1:I2737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96290,6 +96290,41 @@
         <v>595000</v>
       </c>
     </row>
+    <row r="2737">
+      <c r="A2737" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2737" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2737" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2737" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2737" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2737" t="n">
+        <v>1308400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7243.xlsx
+++ b/data/7243.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2737"/>
+  <dimension ref="A1:I2740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96325,6 +96325,111 @@
         <v>1308400</v>
       </c>
     </row>
+    <row r="2738">
+      <c r="A2738" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2738" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2738" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2738" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2738" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2738" t="n">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2739" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2739" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2739" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2739" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2739" t="n">
+        <v>546600</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>7243</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>IMPIANA</t>
+        </is>
+      </c>
+      <c r="E2740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2740" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2740" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2740" t="n">
+        <v>998900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
